--- a/src/main/java/de/uni_trier/wi2/pki/util/Pseudo_Struktur/EntropyUtils.xlsx
+++ b/src/main/java/de/uni_trier/wi2/pki/util/Pseudo_Struktur/EntropyUtils.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WelJo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WelJo\Desktop\GitProject\PKI-A2-1\src\main\java\de\uni_trier\wi2\pki\util\Pseudo_Struktur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278683A1-6E3F-44CE-BDE1-0173891EC279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AFF1AC-EBFD-4298-A764-94FFFCCB72C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{CFEA7D85-BEE1-412C-A527-4CB0AA734FAA}"/>
   </bookViews>
@@ -249,12 +249,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -571,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633C6A3B-F2BD-4884-AF36-CD0DFC7A15FC}">
   <dimension ref="B2:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -858,13 +859,16 @@
         <v>17</v>
       </c>
       <c r="T7" s="1">
-        <v>0.48220555599999998</v>
+        <f t="shared" ref="T7:U9" si="0">-COUNTIFS($C$3:$C$9765,$S7,$L$3:$L$9765,T$6)/COUNTIF($C$3:$C$9765,$S7)*LOG(COUNTIFS($C$3:$C$9765,$S7,$L$3:$L$9765,T$6)/COUNTIF($C$3:$C$9765,$S7),2)</f>
+        <v>0.48220555587606945</v>
       </c>
       <c r="U7" s="1">
-        <v>0.281998951</v>
+        <f t="shared" si="0"/>
+        <v>0.28199895063255087</v>
       </c>
       <c r="V7" s="1">
-        <v>0.76420450699999998</v>
+        <f t="shared" ref="V7:V8" si="1">+SUM(T7:U7)</f>
+        <v>0.76420450650862026</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
@@ -909,13 +913,16 @@
         <v>22</v>
       </c>
       <c r="T8" s="1">
-        <v>0.46438561900000003</v>
+        <f t="shared" si="0"/>
+        <v>0.46438561897747244</v>
       </c>
       <c r="U8" s="1">
-        <v>0.25754247600000002</v>
+        <f t="shared" si="0"/>
+        <v>0.25754247590988982</v>
       </c>
       <c r="V8" s="1">
-        <v>0.72192809499999999</v>
+        <f t="shared" si="1"/>
+        <v>0.72192809488736231</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
@@ -960,12 +967,15 @@
         <v>34</v>
       </c>
       <c r="T9" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="V9" s="1" t="e">
+        <f>+SUM(T9:U9)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -1124,8 +1134,8 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <f>+COUNTIFS(C3:C17,S7)/COUNT(L3:L17)*V7+COUNTIFS(C3:C17,S8)/COUNT(L3:L17)*V8</f>
-        <v>0.69916540253333326</v>
+        <f>+COUNTIF(C3:C9765,S7)/COUNT(L3:L9765)*V7+COUNTIF(C3:C9765,S8)/COUNT(L3:L9765)*V8</f>
+        <v>0.69916540220095957</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
@@ -1177,11 +1187,11 @@
       </c>
       <c r="U14" s="1">
         <f>+V13</f>
-        <v>0.69916540253333326</v>
+        <v>0.69916540220095957</v>
       </c>
       <c r="V14" s="4">
         <f>+T14-U14</f>
-        <v>0.13747533946666679</v>
+        <v>0.13747533979904047</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
@@ -1338,14 +1348,16 @@
         <v>18</v>
       </c>
       <c r="O20" s="1">
-        <v>0.52832083399999996</v>
+        <f>-COUNTIFS($D$3:$D$9765,$N20,$L$3:$L$9765,O$19)/COUNTIF($D$3:$D$9765,$N20)*LOG(COUNTIFS($D$3:$D$9765,$N20,$L$3:$L$9765,O$19)/COUNTIF($D$3:$D$9765,$N20),2)</f>
+        <v>0.52832083357371873</v>
       </c>
       <c r="P20" s="1">
-        <v>0.38997500000000002</v>
+        <f>-COUNTIFS($D$3:$D$9765,$N20,$L$3:$L$9765,P$19)/COUNTIF($D$3:$D$9765,$N20)*LOG(COUNTIFS($D$3:$D$9765,$N20,$L$3:$L$9765,P$19)/COUNTIF($D$3:$D$9765,$N20),2)</f>
+        <v>0.38997500048077083</v>
       </c>
       <c r="Q20" s="1">
         <f>+SUM(O20:P20)</f>
-        <v>0.91829583400000003</v>
+        <v>0.91829583405448956</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1"/>
@@ -1357,14 +1369,16 @@
         <v>30</v>
       </c>
       <c r="O21" s="1">
-        <v>0.430827083</v>
+        <f>-COUNTIFS($D$3:$D$9765,$N21,$L$3:$L$9765,O$19)/COUNTIF($D$3:$D$9765,$N21)*LOG(COUNTIFS($D$3:$D$9765,$N21,$L$3:$L$9765,O$19)/COUNTIF($D$3:$D$9765,$N21),2)</f>
+        <v>0.43082708345352599</v>
       </c>
       <c r="P21" s="1">
-        <v>0.21919533799999999</v>
+        <f>-COUNTIFS($D$3:$D$9765,$N21,$L$3:$L$9765,P$19)/COUNTIF($D$3:$D$9765,$N21)*LOG(COUNTIFS($D$3:$D$9765,$N21,$L$3:$L$9765,P$19)/COUNTIF($D$3:$D$9765,$N21),2)</f>
+        <v>0.21919533819482817</v>
       </c>
       <c r="Q21" s="1">
         <f>+SUM(O21:P21)</f>
-        <v>0.65002242099999996</v>
+        <v>0.65002242164835411</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1"/>
@@ -1408,8 +1422,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
-        <f>+COUNTIFS(D3:D17,N20)/COUNT(L3:L17)*Q20+COUNTIFS(D3:D17,N21)/COUNT(L3:L17)*Q21</f>
-        <v>0.81098646880000003</v>
+        <f>+COUNTIF(D3:D9765,N20)/COUNT(L3:L9765)*Q20+COUNTIF(D3:D9765,N21)/COUNT(L3:L9765)*Q21</f>
+        <v>0.81098646909203531</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>43</v>
@@ -1419,6 +1433,7 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="J27" s="5"/>
       <c r="N27" s="2" t="s">
         <v>45</v>
       </c>
@@ -1428,11 +1443,11 @@
       </c>
       <c r="P27" s="1">
         <f>+Q26</f>
-        <v>0.81098646880000003</v>
+        <v>0.81098646909203531</v>
       </c>
       <c r="Q27" s="4">
         <f>+O27-P27</f>
-        <v>2.5654273200000022E-2</v>
+        <v>2.5654272907964737E-2</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>45</v>
@@ -1624,10 +1639,12 @@
         <v>1</v>
       </c>
       <c r="T46" s="1">
-        <v>0.52877123800000003</v>
+        <f>-COUNTIFS($I$3:$I$9765,$S46,$L$3:$L$9765,T$45)/COUNTIF($I$3:$I$9765,$S46)*LOG(COUNTIFS($I$3:$I$9765,$S46,$L$3:$L$9765,T$45)/COUNTIF($I$3:$I$9765,$S46),2)</f>
+        <v>0.52877123795494485</v>
       </c>
       <c r="U46" s="1">
-        <v>0.44217935600000002</v>
+        <f>-COUNTIFS($I$3:$I$9765,$S46,$L$3:$L$9765,U$45)/COUNTIF($I$3:$I$9765,$S46)*LOG(COUNTIFS($I$3:$I$9765,$S46,$L$3:$L$9765,U$45)/COUNTIF($I$3:$I$9765,$S46),2)</f>
+        <v>0.44217935649972373</v>
       </c>
       <c r="V46" s="1">
         <v>0.97095059399999994</v>
@@ -1642,9 +1659,11 @@
         <v>0</v>
       </c>
       <c r="T47" s="1" t="e">
+        <f>-COUNTIFS($I$3:$I$9765,$S47,$L$3:$L$9765,T$45)/COUNTIF($I$3:$I$9765,$S47)*LOG(COUNTIFS($I$3:$I$9765,$S47,$L$3:$L$9765,T$45)/COUNTIF($I$3:$I$9765,$S47),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="U47" s="1">
+        <f>-COUNTIFS($I$3:$I$9765,$S47,$L$3:$L$9765,U$45)/COUNTIF($I$3:$I$9765,$S47)*LOG(COUNTIFS($I$3:$I$9765,$S47,$L$3:$L$9765,U$45)/COUNTIF($I$3:$I$9765,$S47),2)</f>
         <v>0</v>
       </c>
       <c r="V47" s="1" t="e">
@@ -1693,9 +1712,9 @@
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="1">
-        <f>+COUNTIFS(I2:I17,S46)/COUNT(L2:L17)*V46</f>
-        <v>0.64730039599999989</v>
+      <c r="V52" s="1" t="e">
+        <f>+COUNTIF(I3:I9765,S46)/COUNT(L3:L9765)*V46+COUNTIF(I3:I9765,S47)/COUNT(L3:L9765)*V47</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="14:22" x14ac:dyDescent="0.35">
@@ -1712,13 +1731,13 @@
         <f>+Q3</f>
         <v>0.83664074200000005</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U53" s="1" t="e">
         <f>+V52</f>
-        <v>0.64730039599999989</v>
-      </c>
-      <c r="V53" s="4">
+        <v>#NUM!</v>
+      </c>
+      <c r="V53" s="4" t="e">
         <f>+T53-U53</f>
-        <v>0.18934034600000016</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="14:22" x14ac:dyDescent="0.35">
@@ -1774,13 +1793,16 @@
         <v>1</v>
       </c>
       <c r="O59" s="1">
-        <v>0.40105070300000001</v>
+        <f>-COUNTIFS($J$3:$J$9765,$N59,$L$3:$L$9765,O$58)/COUNTIF($J$3:$J$9765,$N59)*LOG(COUNTIFS($J$3:$J$9765,$N59,$L$3:$L$9765,O$58)/COUNTIF($J$3:$J$9765,$N59),2)</f>
+        <v>0.40105070315108637</v>
       </c>
       <c r="P59" s="1">
-        <v>0.190622075</v>
+        <f>-COUNTIFS($J$3:$J$9765,$N59,$L$3:$L$9765,P$58)/COUNTIF($J$3:$J$9765,$N59)*LOG(COUNTIFS($J$3:$J$9765,$N59,$L$3:$L$9765,P$58)/COUNTIF($J$3:$J$9765,$N59),2)</f>
+        <v>0.19062207543124116</v>
       </c>
       <c r="Q59" s="1">
-        <v>0.59167277900000004</v>
+        <f>+SUM(O59:P59)</f>
+        <v>0.59167277858232747</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="1"/>
@@ -1792,13 +1814,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <v>0.53063906199999999</v>
+        <f>-COUNTIFS($J$3:$J$9765,$N60,$L$3:$L$9765,O$58)/COUNTIF($J$3:$J$9765,$N60)*LOG(COUNTIFS($J$3:$J$9765,$N60,$L$3:$L$9765,O$58)/COUNTIF($J$3:$J$9765,$N60),2)</f>
+        <v>0.53063906222956636</v>
       </c>
       <c r="P60" s="1">
-        <v>0.42379494099999998</v>
+        <f>-COUNTIFS($J$3:$J$9765,$N60,$L$3:$L$9765,P$58)/COUNTIF($J$3:$J$9765,$N60)*LOG(COUNTIFS($J$3:$J$9765,$N60,$L$3:$L$9765,P$58)/COUNTIF($J$3:$J$9765,$N60),2)</f>
+        <v>0.42379494069539858</v>
       </c>
       <c r="Q60" s="1">
-        <v>0.95443400300000003</v>
+        <f>+SUM(O60:P60)</f>
+        <v>0.95443400292496494</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="1"/>
@@ -1843,7 +1868,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1">
         <f>+COUNTIFS(J3:J17,N59)/COUNT(L3:L17)*Q59+COUNTIFS(J3:J17,N60)/COUNT(L3:L17)*Q60</f>
-        <v>0.78514543179999996</v>
+        <v>0.78514543156506744</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>43</v>
@@ -1862,11 +1887,11 @@
       </c>
       <c r="P66" s="1">
         <f>+Q65</f>
-        <v>0.78514543179999996</v>
+        <v>0.78514543156506744</v>
       </c>
       <c r="Q66" s="4">
         <f>+O66-P66</f>
-        <v>5.1495310200000088E-2</v>
+        <v>5.1495310434932606E-2</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>45</v>

--- a/src/main/java/de/uni_trier/wi2/pki/util/Pseudo_Struktur/EntropyUtils.xlsx
+++ b/src/main/java/de/uni_trier/wi2/pki/util/Pseudo_Struktur/EntropyUtils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WelJo\Desktop\GitProject\PKI-A2-1\src\main\java\de\uni_trier\wi2\pki\util\Pseudo_Struktur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AFF1AC-EBFD-4298-A764-94FFFCCB72C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A5407-239B-4CF1-BB1A-ECA762DEFA53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{CFEA7D85-BEE1-412C-A527-4CB0AA734FAA}"/>
   </bookViews>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633C6A3B-F2BD-4884-AF36-CD0DFC7A15FC}">
   <dimension ref="B2:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
